--- a/18_05_2025___SAP311_Case_study_SD.xlsx
+++ b/18_05_2025___SAP311_Case_study_SD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12900"/>
+    <workbookView windowWidth="22192" windowHeight="10380" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Doc number Case SD" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Step 2" sheetId="3" r:id="rId3"/>
     <sheet name="Step 3" sheetId="4" r:id="rId4"/>
     <sheet name="Step 4" sheetId="5" r:id="rId5"/>
+    <sheet name="Step 5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,14 +98,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,148 +575,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -822,7 +816,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="18288000" cy="9906000"/>
+          <a:ext cx="19659600" cy="9410700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -869,7 +863,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="18288000" cy="9906000"/>
+          <a:ext cx="19678650" cy="9410700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -916,7 +910,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="18288000" cy="9906000"/>
+          <a:ext cx="19678650" cy="9410700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -963,7 +957,54 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="18288000" cy="9906000"/>
+          <a:ext cx="19678650" cy="9410700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="29260800" cy="17373600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1239,16 +1280,16 @@
   <sheetPr/>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.4380952380952" customWidth="1"/>
-    <col min="2" max="2" width="48.1047619047619" customWidth="1"/>
-    <col min="3" max="3" width="20.1047619047619" customWidth="1"/>
-    <col min="4" max="4" width="12.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="15.4424778761062" customWidth="1"/>
+    <col min="2" max="2" width="48.1061946902655" customWidth="1"/>
+    <col min="3" max="3" width="20.1061946902655" customWidth="1"/>
+    <col min="4" max="4" width="12.6637168141593" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1320,7 +1361,9 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>20000048</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
@@ -1449,7 +1492,7 @@
       <selection activeCell="AO29" sqref="AO29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1462,11 +1505,11 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1479,11 +1522,11 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1496,11 +1539,28 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/18_05_2025___SAP311_Case_study_SD.xlsx
+++ b/18_05_2025___SAP311_Case_study_SD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22192" windowHeight="10380" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="12900"/>
   </bookViews>
   <sheets>
     <sheet name="Doc number Case SD" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Step 3" sheetId="4" r:id="rId4"/>
     <sheet name="Step 4" sheetId="5" r:id="rId5"/>
     <sheet name="Step 5" sheetId="6" r:id="rId6"/>
+    <sheet name="Step 6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -816,7 +817,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="19659600" cy="9410700"/>
+          <a:ext cx="18288000" cy="9906000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -863,7 +864,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="19678650" cy="9410700"/>
+          <a:ext cx="18288000" cy="9906000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -910,7 +911,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="19678650" cy="9410700"/>
+          <a:ext cx="18288000" cy="9906000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -957,7 +958,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="19678650" cy="9410700"/>
+          <a:ext cx="18288000" cy="9906000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1004,7 +1005,54 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="29260800" cy="17373600"/>
+          <a:ext cx="27203400" cy="18288000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18288000" cy="9906000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1280,16 +1328,16 @@
   <sheetPr/>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.4424778761062" customWidth="1"/>
-    <col min="2" max="2" width="48.1061946902655" customWidth="1"/>
-    <col min="3" max="3" width="20.1061946902655" customWidth="1"/>
-    <col min="4" max="4" width="12.6637168141593" customWidth="1"/>
+    <col min="1" max="1" width="15.4380952380952" customWidth="1"/>
+    <col min="2" max="2" width="48.1047619047619" customWidth="1"/>
+    <col min="3" max="3" width="20.1047619047619" customWidth="1"/>
+    <col min="4" max="4" width="12.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1373,7 +1421,9 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>38</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4">
@@ -1492,7 +1542,7 @@
       <selection activeCell="AO29" sqref="AO29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1509,7 +1559,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1526,7 +1576,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1539,11 +1589,11 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A3" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1556,11 +1606,28 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A52" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.02857142857143" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/18_05_2025___SAP311_Case_study_SD.xlsx
+++ b/18_05_2025___SAP311_Case_study_SD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12900"/>
+    <workbookView windowWidth="22192" windowHeight="10380" firstSheet="6" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Doc number Case SD" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,16 @@
     <sheet name="Step 4" sheetId="5" r:id="rId5"/>
     <sheet name="Step 5" sheetId="6" r:id="rId6"/>
     <sheet name="Step 6" sheetId="7" r:id="rId7"/>
+    <sheet name="Step 7" sheetId="8" r:id="rId8"/>
+    <sheet name="Step 8" sheetId="9" r:id="rId9"/>
+    <sheet name="Step 9" sheetId="10" r:id="rId10"/>
+    <sheet name="Step 10" sheetId="11" r:id="rId11"/>
+    <sheet name="Step 11" sheetId="12" r:id="rId12"/>
+    <sheet name="Step 12" sheetId="13" r:id="rId13"/>
+    <sheet name="Step 13" sheetId="14" r:id="rId14"/>
+    <sheet name="Step 14" sheetId="15" r:id="rId15"/>
+    <sheet name="Step 15" sheetId="16" r:id="rId16"/>
+    <sheet name="Step 16" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -817,7 +827,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="18288000" cy="9906000"/>
+          <a:ext cx="19659600" cy="9410700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -833,7 +843,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -843,9 +853,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -864,7 +874,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="18288000" cy="9906000"/>
+          <a:ext cx="29260800" cy="17373600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -880,7 +890,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -890,9 +900,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -911,7 +921,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="18288000" cy="9906000"/>
+          <a:ext cx="29260800" cy="17373600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -927,7 +937,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -937,9 +947,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -958,7 +968,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="18288000" cy="9906000"/>
+          <a:ext cx="29260800" cy="17373600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -974,7 +984,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1005,7 +1015,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="27203400" cy="18288000"/>
+          <a:ext cx="29260800" cy="17373600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1021,7 +1031,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1031,9 +1041,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1052,7 +1062,477 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="18288000" cy="9906000"/>
+          <a:ext cx="29260800" cy="17373600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="29260800" cy="17373600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="29260800" cy="17373600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="19678650" cy="9410700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="19678650" cy="9410700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="19678650" cy="9410700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="29260800" cy="17373600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="19678650" cy="9410700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="29260800" cy="17373600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="29260800" cy="17373600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="29260800" cy="17373600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1328,16 +1808,16 @@
   <sheetPr/>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.4380952380952" customWidth="1"/>
-    <col min="2" max="2" width="48.1047619047619" customWidth="1"/>
-    <col min="3" max="3" width="20.1047619047619" customWidth="1"/>
-    <col min="4" max="4" width="12.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="15.4424778761062" customWidth="1"/>
+    <col min="2" max="2" width="48.1061946902655" customWidth="1"/>
+    <col min="3" max="3" width="20.1061946902655" customWidth="1"/>
+    <col min="4" max="4" width="12.6637168141593" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1453,7 +1933,9 @@
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>80000033</v>
+      </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
@@ -1473,7 +1955,9 @@
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <v>4900038035</v>
+      </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
@@ -1493,7 +1977,9 @@
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2">
+        <v>90000029</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4">
@@ -1513,7 +1999,9 @@
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2">
+        <v>1400000021</v>
+      </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
@@ -1530,6 +2018,142 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1542,7 +2166,7 @@
       <selection activeCell="AO29" sqref="AO29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1556,10 +2180,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D62" sqref="D42:O62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1576,7 +2200,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1593,7 +2217,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1610,7 +2234,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02857142857143" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1623,11 +2247,45 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
